--- a/codes/marks.xlsx
+++ b/codes/marks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\repos\grading\codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E5257D-BAAC-486A-983B-27386333204C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B517640-5BFE-4F65-8906-CA7C61F36783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{2E7622A9-41EC-4789-A95E-0E71DD6A2D53}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2E7622A9-41EC-4789-A95E-0E71DD6A2D53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Grade</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>S.No.</t>
   </si>
@@ -96,13 +93,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,9 +117,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -161,7 +157,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -267,7 +263,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -409,7 +405,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -417,26 +413,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BCBC99-8510-40C3-837B-E508DDA30C82}">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -444,7 +437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.5" customHeight="1">
+    <row r="3" spans="1:2" ht="14.5" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -452,7 +445,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.5" customHeight="1">
+    <row r="4" spans="1:2" ht="14.5" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -460,7 +453,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.5" customHeight="1">
+    <row r="5" spans="1:2" ht="14.5" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -468,7 +461,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.5" customHeight="1">
+    <row r="6" spans="1:2" ht="14.5" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -476,7 +469,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.5" customHeight="1">
+    <row r="7" spans="1:2" ht="14.5" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -484,7 +477,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.5" customHeight="1">
+    <row r="8" spans="1:2" ht="14.5" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -492,7 +485,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.5" customHeight="1">
+    <row r="9" spans="1:2" ht="14.5" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -500,7 +493,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.5" customHeight="1">
+    <row r="10" spans="1:2" ht="14.5" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -508,7 +501,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.5" customHeight="1">
+    <row r="11" spans="1:2" ht="14.5" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -516,7 +509,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.5" customHeight="1">
+    <row r="12" spans="1:2" ht="14.5" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -524,7 +517,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.5" customHeight="1">
+    <row r="13" spans="1:2" ht="14.5" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -532,7 +525,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.5" customHeight="1">
+    <row r="14" spans="1:2" ht="14.5" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -540,7 +533,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.5" customHeight="1">
+    <row r="15" spans="1:2" ht="14.5" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -548,7 +541,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.5" customHeight="1">
+    <row r="16" spans="1:2" ht="14.5" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1309,7 +1302,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="14.5" customHeight="1">
-      <c r="A111" s="2">
+      <c r="A111">
         <v>110</v>
       </c>
       <c r="B111">
@@ -1317,7 +1310,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="14.5" customHeight="1">
-      <c r="A112" s="2">
+      <c r="A112">
         <v>111</v>
       </c>
       <c r="B112">
@@ -1325,7 +1318,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="14.5" customHeight="1">
-      <c r="A113" s="2">
+      <c r="A113">
         <v>112</v>
       </c>
       <c r="B113">
@@ -1333,7 +1326,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" ht="14.5" customHeight="1">
-      <c r="A114" s="2">
+      <c r="A114">
         <v>113</v>
       </c>
       <c r="B114">
@@ -1341,7 +1334,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="14.5" customHeight="1">
-      <c r="A115" s="3">
+      <c r="A115" s="2">
         <v>114</v>
       </c>
       <c r="B115">
